--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_13.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731699985.6639025</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731699987.096822</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699985.6639025.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699987.096822.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2780.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2774.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>6.550000000000182</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731699988.6028779</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731699991.4151762</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699988.6028779.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699991.4151762.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2781.9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2788.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-6.549999999999727</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731699992.362848</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731699993.8285034</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699992.362848.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699993.8285034.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2786.25</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2786.55</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3000000000001819</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731699994.4364946</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731699994.5760782</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699994.4364946.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699994.5760782.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2787.35</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2786.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731699995.0058937</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731699995.576939</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699995.0058937.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699995.576939.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2791.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2788.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.899999999999636</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731699995.8602204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731699996.8617997</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699995.8602204.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699996.8617997.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2786.15</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2787.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731699997.3929055</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700000.046976</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699997.3929055.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700000.046976.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2784.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2781.45</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-2.75</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700001.576896</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700002.6883686</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700001.576896.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700002.6883686.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2778</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2778.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4499999999998181</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -955,44 +1019,50 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700003.2570724</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700003.2570724.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700003.2570724.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2782.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>2782.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-12.89999999999964</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -1053,19 +1123,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.75</v>
+        <v>-10.14999999999964</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3055555555555556</v>
+        <v>-1.127777777777737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>-0.3599999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
